--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fga-Itgb3.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>11.899324814976</v>
+        <v>0.146654082224</v>
       </c>
       <c r="R2">
-        <v>107.093923334784</v>
+        <v>1.319886740016</v>
       </c>
       <c r="S2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="T2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
         <v>11.95507048771467</v>
@@ -632,10 +632,10 @@
         <v>107.595634389432</v>
       </c>
       <c r="S3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="T3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>0.5740798758086667</v>
+        <v>0.9197306392779999</v>
       </c>
       <c r="R4">
-        <v>5.166718882278</v>
+        <v>8.277575753501999</v>
       </c>
       <c r="S4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="T4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
     </row>
   </sheetData>
